--- a/All_Results.xlsx
+++ b/All_Results.xlsx
@@ -1,43 +1,57 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="190" windowWidth="19200" windowHeight="11170" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Problem Variables" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="cr-28 var" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Dynamometer" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <b val="1"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
+      <b val="1"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -45,26 +59,238 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="14">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -79,39 +305,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -144,9 +370,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -179,6 +422,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -240,13 +500,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -255,6 +508,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -319,24 +579,1033 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E30" sqref="A1:E30"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5" outlineLevelCol="0"/>
+  <cols>
+    <col width="58.90625" customWidth="1" min="1" max="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="6" t="inlineStr">
+        <is>
+          <t>DATA FOR THE CAR PERFORMANCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="15.75" customHeight="1" thickBot="1"/>
+    <row r="3" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A3" s="5" t="inlineStr">
+        <is>
+          <t>GEAR RATIOS</t>
+        </is>
+      </c>
+      <c r="B3" s="11" t="inlineStr">
+        <is>
+          <t>value</t>
+        </is>
+      </c>
+      <c r="C3" s="11" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>1st gear</t>
+        </is>
+      </c>
+      <c r="B4" s="8" t="n">
+        <v>4.171</v>
+      </c>
+      <c r="C4" s="8" t="n">
+        <v>4.171</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>2nd gear</t>
+        </is>
+      </c>
+      <c r="B5" s="9" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="C5" s="9" t="n">
+        <v>2.34</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>3rd gear</t>
+        </is>
+      </c>
+      <c r="B6" s="9" t="n">
+        <v>1.521</v>
+      </c>
+      <c r="C6" s="9" t="n">
+        <v>1.521</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>4th gear</t>
+        </is>
+      </c>
+      <c r="B7" s="9" t="n">
+        <v>1.143</v>
+      </c>
+      <c r="C7" s="9" t="n">
+        <v>1.143</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>5th gear</t>
+        </is>
+      </c>
+      <c r="B8" s="9" t="n">
+        <v>0.867</v>
+      </c>
+      <c r="C8" s="9" t="n">
+        <v>0.867</v>
+      </c>
+    </row>
+    <row r="9" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A9" s="3" t="inlineStr">
+        <is>
+          <t>6th gear</t>
+        </is>
+      </c>
+      <c r="B9" s="10" t="n">
+        <v>0.6909999999999999</v>
+      </c>
+      <c r="C9" s="10" t="n">
+        <v>0.6909999999999999</v>
+      </c>
+    </row>
+    <row r="10" ht="15.75" customHeight="1" thickBot="1"/>
+    <row r="11" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A11" s="5" t="inlineStr">
+        <is>
+          <t>OTHER PARAMETERS</t>
+        </is>
+      </c>
+      <c r="B11" s="11" t="inlineStr">
+        <is>
+          <t>symbol</t>
+        </is>
+      </c>
+      <c r="C11" s="11" t="inlineStr">
+        <is>
+          <t>value</t>
+        </is>
+      </c>
+      <c r="D11" s="11" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>speed in km/h</t>
+        </is>
+      </c>
+      <c r="B12" s="8" t="inlineStr">
+        <is>
+          <t>v</t>
+        </is>
+      </c>
+      <c r="C12" s="8" t="n">
+        <v>100</v>
+      </c>
+      <c r="D12" s="8" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>terrain slope as %</t>
+        </is>
+      </c>
+      <c r="B13" s="9" t="inlineStr">
+        <is>
+          <t>slope %</t>
+        </is>
+      </c>
+      <c r="C13" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="D13" s="9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>wheelbase in m</t>
+        </is>
+      </c>
+      <c r="B14" s="9" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="C14" s="9" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="D14" s="9" t="n">
+        <v>2.31</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>radius of the wheel in m</t>
+        </is>
+      </c>
+      <c r="B15" s="9" t="inlineStr">
+        <is>
+          <t>r</t>
+        </is>
+      </c>
+      <c r="C15" s="9" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="D15" s="9" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>roll resistance coefficient</t>
+        </is>
+      </c>
+      <c r="B16" s="9" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="C16" s="9" t="n">
+        <v>0.018</v>
+      </c>
+      <c r="D16" s="9" t="n">
+        <v>0.018</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>air resistance moment arm / center of gravity height in m</t>
+        </is>
+      </c>
+      <c r="B17" s="9" t="inlineStr">
+        <is>
+          <t>hA/h</t>
+        </is>
+      </c>
+      <c r="C17" s="9" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="D17" s="9" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>final drive efficiency as %</t>
+        </is>
+      </c>
+      <c r="B18" s="9" t="inlineStr">
+        <is>
+          <t>ηd</t>
+        </is>
+      </c>
+      <c r="C18" s="9" t="n">
+        <v>96</v>
+      </c>
+      <c r="D18" s="9" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>transmission efficiency as %</t>
+        </is>
+      </c>
+      <c r="B19" s="9" t="inlineStr">
+        <is>
+          <t>ηt</t>
+        </is>
+      </c>
+      <c r="C19" s="9" t="n">
+        <v>98</v>
+      </c>
+      <c r="D19" s="9" t="n">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>weight of the vehicle in N</t>
+        </is>
+      </c>
+      <c r="B20" s="9" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="C20" s="9" t="n">
+        <v>14729</v>
+      </c>
+      <c r="D20" s="9" t="n">
+        <v>14729</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>air density in kg/m^3</t>
+        </is>
+      </c>
+      <c r="B21" s="9" t="inlineStr">
+        <is>
+          <t>ρ</t>
+        </is>
+      </c>
+      <c r="C21" s="9" t="n">
+        <v>1.225</v>
+      </c>
+      <c r="D21" s="9" t="n">
+        <v>1.225</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>drive ratio</t>
+        </is>
+      </c>
+      <c r="B22" s="9" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="C22" s="9" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="D22" s="9" t="n">
+        <v>3.46</v>
+      </c>
+    </row>
+    <row r="23" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A23" s="3" t="inlineStr">
+        <is>
+          <t>distance identifying the center of gravity position from the front wheel in m</t>
+        </is>
+      </c>
+      <c r="B23" s="10" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="C23" s="10" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="D23" s="10" t="n">
+        <v>1.12</v>
+      </c>
+    </row>
+    <row r="24" ht="15" customHeight="1" thickBot="1"/>
+    <row r="25" ht="15" customHeight="1" thickBot="1">
+      <c r="A25" s="5" t="inlineStr">
+        <is>
+          <t>MODEL</t>
+        </is>
+      </c>
+      <c r="B25" s="11" t="inlineStr">
+        <is>
+          <t>Year</t>
+        </is>
+      </c>
+      <c r="C25" s="11" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
+      <c r="D25" s="7" t="inlineStr">
+        <is>
+          <t>A (m^2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="12" t="inlineStr">
+        <is>
+          <t>Ford Escape Hybrid</t>
+        </is>
+      </c>
+      <c r="B26" s="8" t="n">
+        <v>2005</v>
+      </c>
+      <c r="C26" s="8" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="D26" s="13" t="n">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>Toyota Camry</t>
+        </is>
+      </c>
+      <c r="B27" s="9" t="n">
+        <v>1992</v>
+      </c>
+      <c r="C27" s="9" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="D27" s="2" t="n">
+        <v>0.703</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Smart Roadster Coupé</t>
+        </is>
+      </c>
+      <c r="B28" s="9" t="n">
+        <v>2003</v>
+      </c>
+      <c r="C28" s="9" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="D28" s="2" t="n">
+        <v>0.596</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>Toyota Prius</t>
+        </is>
+      </c>
+      <c r="B29" s="9" t="n">
+        <v>2014</v>
+      </c>
+      <c r="C29" s="9" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="D29" s="2" t="n">
+        <v>0.576</v>
+      </c>
+    </row>
+    <row r="30" ht="15" customHeight="1" thickBot="1">
+      <c r="A30" s="3" t="inlineStr">
+        <is>
+          <t>Chevrolet Volt</t>
+        </is>
+      </c>
+      <c r="B30" s="10" t="n">
+        <v>2014</v>
+      </c>
+      <c r="C30" s="10" t="n">
+        <v>0.281</v>
+      </c>
+      <c r="D30" s="4" t="n">
+        <v>0.622</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>DATA FOR THE CAR PERFORMANCE CR-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>GEAR RATIOS</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>value</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>1st gear</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>4.171</v>
+      </c>
+      <c r="C4" t="n">
+        <v>4.171</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2nd gear</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2.34</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>3rd gear</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1.521</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.521</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4th gear</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>1.143</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.143</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>5th gear</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.867</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.867</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>6th gear</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.6909999999999999</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.6909999999999999</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>OTHER PARAMETERS</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>symbol</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>value</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>speed in km/h</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>v</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>100</v>
+      </c>
+      <c r="D12" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>terrain slope as %</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>slope %</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>2</v>
+      </c>
+      <c r="D13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>wheelbase in m</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>radius of the wheel in m</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>r</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>roll resistance coefficient</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.012</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>air resistance moment arm / center of gravity height in m</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>hA/h</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>final drive efficiency as %</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>ηd</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>95</v>
+      </c>
+      <c r="D18" t="n">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>transmission efficiency as %</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>ηt</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>98</v>
+      </c>
+      <c r="D19" t="n">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>weight of the vehicle in N</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>2134</v>
+      </c>
+      <c r="D20" t="n">
+        <v>2134</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>air density in kg/m^3</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>ρ</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>1.225</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1.225</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>drive ratio</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="D22" t="n">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>distance identifying the center of gravity position from the front wheel in m</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>0.765</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.765</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>MODEL</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Year</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>A (m^2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>CR-28</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1.07</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="6" t="inlineStr">
+        <is>
+          <t>DYNAMOMETER DATA</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="15.75" customHeight="1" thickBot="1"/>
+    <row r="3" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A3" s="5" t="inlineStr">
+        <is>
+          <t>ωe (RPM)</t>
+        </is>
+      </c>
+      <c r="B3" s="11" t="inlineStr">
+        <is>
+          <t>Te (N m)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="12" t="n">
+        <v>800</v>
+      </c>
+      <c r="B4" s="9" t="n">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>1312</v>
+      </c>
+      <c r="B5" s="9" t="n">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>1800</v>
+      </c>
+      <c r="B6" s="9" t="n">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>2276</v>
+      </c>
+      <c r="B7" s="9" t="n">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>2800</v>
+      </c>
+      <c r="B8" s="9" t="n">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>3316</v>
+      </c>
+      <c r="B9" s="9" t="n">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>3806</v>
+      </c>
+      <c r="B10" s="9" t="n">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>4300</v>
+      </c>
+      <c r="B11" s="9" t="n">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>4770</v>
+      </c>
+      <c r="B12" s="9" t="n">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>5300</v>
+      </c>
+      <c r="B13" s="9" t="n">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>5800</v>
+      </c>
+      <c r="B14" s="9" t="n">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A15" s="3" t="n">
+        <v>6300</v>
+      </c>
+      <c r="B15" s="10" t="n">
+        <v>171</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+</worksheet>
 </file>
--- a/All_Results.xlsx
+++ b/All_Results.xlsx
@@ -3,26 +3,35 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="3160" yWindow="3680" windowWidth="19200" windowHeight="11170" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Results_1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Results_2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Results_3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Results_4" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
@@ -33,7 +42,14 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -43,10 +59,34 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -128,10 +168,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -169,69 +209,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -255,54 +297,53 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
                 <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
+                <a:tint val="51000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
+                <a:tint val="15000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
+                <a:tint val="94000"/>
                 <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
+              <a:shade val="9500"/>
               <a:satMod val="105000"/>
             </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -312,7 +353,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -321,7 +362,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -330,7 +371,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -338,10 +379,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -370,7 +411,7 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
+                <a:tint val="20000"/>
                 <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
@@ -383,13 +424,12 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
                 <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
+                <a:tint val="80000"/>
                 <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
@@ -409,16 +449,787 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A4:L27"/>
+  <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <cols>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="6" min="1" max="1"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="2" max="2"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="8" min="3" max="3"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="8" min="4" max="4"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="6" min="5" max="5"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="6" min="6" max="6"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="8" min="7" max="7"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="8" min="8" max="8"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="6" min="9" max="9"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="8" min="10" max="10"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="8" min="11" max="11"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="8" min="12" max="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="18.75" customHeight="1">
+      <c r="A1" s="6" t="n"/>
+      <c r="B1" s="7" t="n"/>
+      <c r="C1" s="8" t="n"/>
+      <c r="D1" s="8" t="n"/>
+      <c r="E1" s="6" t="n"/>
+      <c r="F1" s="6" t="n"/>
+      <c r="G1" s="8" t="n"/>
+      <c r="H1" s="8" t="n"/>
+      <c r="I1" s="6" t="n"/>
+      <c r="J1" s="8" t="n"/>
+      <c r="K1" s="8" t="n"/>
+      <c r="L1" s="8" t="n"/>
+    </row>
+    <row r="2" ht="18.75" customHeight="1">
+      <c r="A2" s="6" t="n"/>
+      <c r="B2" s="7" t="n"/>
+      <c r="C2" s="8" t="n"/>
+      <c r="D2" s="8" t="n"/>
+      <c r="E2" s="6" t="n"/>
+      <c r="F2" s="6" t="n"/>
+      <c r="G2" s="8" t="n"/>
+      <c r="H2" s="8" t="n"/>
+      <c r="I2" s="6" t="n"/>
+      <c r="J2" s="8" t="n"/>
+      <c r="K2" s="8" t="n"/>
+      <c r="L2" s="8" t="n"/>
+    </row>
+    <row r="3" ht="18.75" customHeight="1">
+      <c r="A3" s="6" t="n"/>
+      <c r="B3" s="7" t="n"/>
+      <c r="C3" s="8" t="n"/>
+      <c r="D3" s="8" t="n"/>
+      <c r="E3" s="6" t="n"/>
+      <c r="F3" s="6" t="n"/>
+      <c r="G3" s="8" t="n"/>
+      <c r="H3" s="8" t="n"/>
+      <c r="I3" s="6" t="n"/>
+      <c r="J3" s="8" t="n"/>
+      <c r="K3" s="8" t="n"/>
+      <c r="L3" s="8" t="n"/>
+    </row>
+    <row r="4" ht="18.75" customHeight="1">
+      <c r="A4" s="6" t="inlineStr">
+        <is>
+          <t>Gears</t>
+        </is>
+      </c>
+      <c r="B4" s="7" t="inlineStr">
+        <is>
+          <t>Ratio</t>
+        </is>
+      </c>
+      <c r="C4" s="8" t="inlineStr">
+        <is>
+          <t>WR(N)</t>
+        </is>
+      </c>
+      <c r="D4" s="8" t="inlineStr">
+        <is>
+          <t>WF(N)</t>
+        </is>
+      </c>
+      <c r="E4" s="6" t="inlineStr">
+        <is>
+          <t>WRstat(N)</t>
+        </is>
+      </c>
+      <c r="F4" s="6" t="inlineStr">
+        <is>
+          <t>WFstat(N)</t>
+        </is>
+      </c>
+      <c r="G4" s="8" t="inlineStr">
+        <is>
+          <t>a(m/s^2)</t>
+        </is>
+      </c>
+      <c r="H4" s="8" t="inlineStr">
+        <is>
+          <t>P(N)</t>
+        </is>
+      </c>
+      <c r="I4" s="6" t="inlineStr">
+        <is>
+          <t>R(N)</t>
+        </is>
+      </c>
+      <c r="J4" s="8" t="inlineStr">
+        <is>
+          <t>HP(hp)</t>
+        </is>
+      </c>
+      <c r="K4" s="8" t="inlineStr">
+        <is>
+          <t>Te(Nm)</t>
+        </is>
+      </c>
+      <c r="L4" s="8" t="inlineStr">
+        <is>
+          <t>omega_e(RPM)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="18.75" customHeight="1">
+      <c r="A5" s="6" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="B5" s="4" t="n">
+        <v>4.171</v>
+      </c>
+      <c r="C5" s="8" t="inlineStr">
+        <is>
+          <t>OOR</t>
+        </is>
+      </c>
+      <c r="D5" s="8" t="inlineStr">
+        <is>
+          <t>OOR</t>
+        </is>
+      </c>
+      <c r="E5" s="6" t="inlineStr">
+        <is>
+          <t>OOR</t>
+        </is>
+      </c>
+      <c r="F5" s="6" t="inlineStr">
+        <is>
+          <t>OOR</t>
+        </is>
+      </c>
+      <c r="G5" s="8" t="inlineStr">
+        <is>
+          <t>OOR</t>
+        </is>
+      </c>
+      <c r="H5" s="8" t="inlineStr">
+        <is>
+          <t>OOR</t>
+        </is>
+      </c>
+      <c r="I5" s="6" t="inlineStr">
+        <is>
+          <t>OOR</t>
+        </is>
+      </c>
+      <c r="J5" s="8" t="inlineStr">
+        <is>
+          <t>OOR</t>
+        </is>
+      </c>
+      <c r="K5" s="8" t="inlineStr">
+        <is>
+          <t>OOR</t>
+        </is>
+      </c>
+      <c r="L5" s="8" t="inlineStr">
+        <is>
+          <t>OOR</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="18.75" customHeight="1">
+      <c r="A6" s="6" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="C6" s="8" t="inlineStr">
+        <is>
+          <t>OOR</t>
+        </is>
+      </c>
+      <c r="D6" s="8" t="inlineStr">
+        <is>
+          <t>OOR</t>
+        </is>
+      </c>
+      <c r="E6" s="6" t="inlineStr">
+        <is>
+          <t>OOR</t>
+        </is>
+      </c>
+      <c r="F6" s="6" t="inlineStr">
+        <is>
+          <t>OOR</t>
+        </is>
+      </c>
+      <c r="G6" s="8" t="inlineStr">
+        <is>
+          <t>OOR</t>
+        </is>
+      </c>
+      <c r="H6" s="8" t="inlineStr">
+        <is>
+          <t>OOR</t>
+        </is>
+      </c>
+      <c r="I6" s="6" t="inlineStr">
+        <is>
+          <t>OOR</t>
+        </is>
+      </c>
+      <c r="J6" s="8" t="inlineStr">
+        <is>
+          <t>OOR</t>
+        </is>
+      </c>
+      <c r="K6" s="8" t="inlineStr">
+        <is>
+          <t>OOR</t>
+        </is>
+      </c>
+      <c r="L6" s="8" t="inlineStr">
+        <is>
+          <t>OOR</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="18.75" customHeight="1">
+      <c r="A7" s="6" t="inlineStr">
+        <is>
+          <t>3rd</t>
+        </is>
+      </c>
+      <c r="B7" s="4" t="n">
+        <v>1.521</v>
+      </c>
+      <c r="C7" s="8" t="inlineStr">
+        <is>
+          <t>OOR</t>
+        </is>
+      </c>
+      <c r="D7" s="8" t="inlineStr">
+        <is>
+          <t>OOR</t>
+        </is>
+      </c>
+      <c r="E7" s="6" t="inlineStr">
+        <is>
+          <t>OOR</t>
+        </is>
+      </c>
+      <c r="F7" s="6" t="inlineStr">
+        <is>
+          <t>OOR</t>
+        </is>
+      </c>
+      <c r="G7" s="8" t="inlineStr">
+        <is>
+          <t>OOR</t>
+        </is>
+      </c>
+      <c r="H7" s="8" t="inlineStr">
+        <is>
+          <t>OOR</t>
+        </is>
+      </c>
+      <c r="I7" s="6" t="inlineStr">
+        <is>
+          <t>OOR</t>
+        </is>
+      </c>
+      <c r="J7" s="8" t="inlineStr">
+        <is>
+          <t>OOR</t>
+        </is>
+      </c>
+      <c r="K7" s="8" t="inlineStr">
+        <is>
+          <t>OOR</t>
+        </is>
+      </c>
+      <c r="L7" s="8" t="inlineStr">
+        <is>
+          <t>OOR</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="18.75" customHeight="1">
+      <c r="A8" s="6" t="inlineStr">
+        <is>
+          <t>4th</t>
+        </is>
+      </c>
+      <c r="B8" s="4" t="n">
+        <v>1.143</v>
+      </c>
+      <c r="C8" s="4" t="n">
+        <v>8019.703352289488</v>
+      </c>
+      <c r="D8" s="4" t="n">
+        <v>-6706.350945902536</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>7139.905114274921</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>7586.149183917103</v>
+      </c>
+      <c r="G8" s="4" t="n">
+        <v>1.923833770379531</v>
+      </c>
+      <c r="H8" s="4" t="n">
+        <v>3652.252947800911</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>763.7567598375965</v>
+      </c>
+      <c r="J8" s="4" t="n">
+        <v>144.6126633325211</v>
+      </c>
+      <c r="K8" s="4" t="n">
+        <v>186.5068603760058</v>
+      </c>
+      <c r="L8" s="4" t="n">
+        <v>5521.252507376894</v>
+      </c>
+    </row>
+    <row r="9" ht="18.75" customHeight="1">
+      <c r="A9" s="6" t="inlineStr">
+        <is>
+          <t>5th</t>
+        </is>
+      </c>
+      <c r="B9" s="4" t="n">
+        <v>0.867</v>
+      </c>
+      <c r="C9" s="4" t="n">
+        <v>7775.264560364717</v>
+      </c>
+      <c r="D9" s="4" t="n">
+        <v>-6950.789737827307</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>7139.905114274921</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>7586.149183917103</v>
+      </c>
+      <c r="G9" s="4" t="n">
+        <v>1.297037211698649</v>
+      </c>
+      <c r="H9" s="4" t="n">
+        <v>2711.163598890543</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>763.7567598375965</v>
+      </c>
+      <c r="J9" s="4" t="n">
+        <v>107.3497904907753</v>
+      </c>
+      <c r="K9" s="4" t="n">
+        <v>182.522673224482</v>
+      </c>
+      <c r="L9" s="4" t="n">
+        <v>4188.036678823943</v>
+      </c>
+    </row>
+    <row r="10" ht="18.75" customHeight="1">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>6th</t>
+        </is>
+      </c>
+      <c r="B10" s="4" t="n">
+        <v>0.6909999999999999</v>
+      </c>
+      <c r="C10" s="4" t="n">
+        <v>7601.581740812536</v>
+      </c>
+      <c r="D10" s="4" t="n">
+        <v>-7124.472557379489</v>
+      </c>
+      <c r="E10" s="6" t="n">
+        <v>7139.905114274921</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>7586.149183917103</v>
+      </c>
+      <c r="G10" s="4" t="n">
+        <v>0.8516750302704086</v>
+      </c>
+      <c r="H10" s="4" t="n">
+        <v>2042.484743614645</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>763.7567598375965</v>
+      </c>
+      <c r="J10" s="4" t="n">
+        <v>80.87313852891884</v>
+      </c>
+      <c r="K10" s="4" t="n">
+        <v>172.5285479948262</v>
+      </c>
+      <c r="L10" s="4" t="n">
+        <v>3337.870063514815</v>
+      </c>
+    </row>
+    <row r="11" ht="18.75" customHeight="1">
+      <c r="A11" s="6" t="n"/>
+      <c r="B11" s="7" t="n"/>
+      <c r="C11" s="8" t="n"/>
+      <c r="D11" s="8" t="n"/>
+      <c r="E11" s="6" t="n"/>
+      <c r="F11" s="6" t="n"/>
+      <c r="G11" s="8" t="n"/>
+      <c r="H11" s="8" t="n"/>
+      <c r="I11" s="6" t="n"/>
+      <c r="J11" s="8" t="n"/>
+      <c r="K11" s="8" t="n"/>
+      <c r="L11" s="8" t="n"/>
+    </row>
+    <row r="12" ht="18.75" customHeight="1">
+      <c r="A12" s="6" t="inlineStr">
+        <is>
+          <t>v</t>
+        </is>
+      </c>
+      <c r="B12" s="5" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" s="8" t="n"/>
+      <c r="D12" s="8" t="n"/>
+      <c r="E12" s="6" t="n"/>
+      <c r="F12" s="6" t="n"/>
+      <c r="G12" s="8" t="n"/>
+      <c r="H12" s="8" t="n"/>
+      <c r="I12" s="6" t="n"/>
+      <c r="J12" s="8" t="n"/>
+      <c r="K12" s="8" t="n"/>
+      <c r="L12" s="8" t="n"/>
+    </row>
+    <row r="13" ht="18.75" customHeight="1">
+      <c r="A13" s="6" t="inlineStr">
+        <is>
+          <t>slope %</t>
+        </is>
+      </c>
+      <c r="B13" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C13" s="8" t="n"/>
+      <c r="D13" s="8" t="n"/>
+      <c r="E13" s="6" t="n"/>
+      <c r="F13" s="6" t="n"/>
+      <c r="G13" s="8" t="n"/>
+      <c r="H13" s="8" t="n"/>
+      <c r="I13" s="6" t="n"/>
+      <c r="J13" s="8" t="n"/>
+      <c r="K13" s="8" t="n"/>
+      <c r="L13" s="8" t="n"/>
+    </row>
+    <row r="14" ht="18.75" customHeight="1">
+      <c r="A14" s="6" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="B14" s="4" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="C14" s="8" t="n"/>
+      <c r="D14" s="8" t="n"/>
+      <c r="E14" s="6" t="n"/>
+      <c r="F14" s="6" t="n"/>
+      <c r="G14" s="8" t="n"/>
+      <c r="H14" s="8" t="n"/>
+      <c r="I14" s="6" t="n"/>
+      <c r="J14" s="8" t="n"/>
+      <c r="K14" s="8" t="n"/>
+      <c r="L14" s="8" t="n"/>
+    </row>
+    <row r="15" ht="18.75" customHeight="1">
+      <c r="A15" s="6" t="inlineStr">
+        <is>
+          <t>r</t>
+        </is>
+      </c>
+      <c r="B15" s="4" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="C15" s="8" t="n"/>
+      <c r="D15" s="8" t="n"/>
+      <c r="E15" s="6" t="n"/>
+      <c r="F15" s="6" t="n"/>
+      <c r="G15" s="8" t="n"/>
+      <c r="H15" s="8" t="n"/>
+      <c r="I15" s="6" t="n"/>
+      <c r="J15" s="8" t="n"/>
+      <c r="K15" s="8" t="n"/>
+      <c r="L15" s="8" t="n"/>
+    </row>
+    <row r="16" ht="18.75" customHeight="1">
+      <c r="A16" s="6" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="B16" s="4" t="n">
+        <v>0.018</v>
+      </c>
+      <c r="C16" s="8" t="n"/>
+      <c r="D16" s="8" t="n"/>
+      <c r="E16" s="6" t="n"/>
+      <c r="F16" s="6" t="n"/>
+      <c r="G16" s="8" t="n"/>
+      <c r="H16" s="8" t="n"/>
+      <c r="I16" s="6" t="n"/>
+      <c r="J16" s="8" t="n"/>
+      <c r="K16" s="8" t="n"/>
+      <c r="L16" s="8" t="n"/>
+    </row>
+    <row r="17" ht="18.75" customHeight="1">
+      <c r="A17" s="6" t="inlineStr">
+        <is>
+          <t>hA/h</t>
+        </is>
+      </c>
+      <c r="B17" s="4" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C17" s="8" t="n"/>
+      <c r="D17" s="8" t="n"/>
+      <c r="E17" s="6" t="n"/>
+      <c r="F17" s="6" t="n"/>
+      <c r="G17" s="8" t="n"/>
+      <c r="H17" s="8" t="n"/>
+      <c r="I17" s="6" t="n"/>
+      <c r="J17" s="8" t="n"/>
+      <c r="K17" s="8" t="n"/>
+      <c r="L17" s="8" t="n"/>
+    </row>
+    <row r="18" ht="18.75" customHeight="1">
+      <c r="A18" s="6" t="inlineStr">
+        <is>
+          <t>ηd</t>
+        </is>
+      </c>
+      <c r="B18" s="5" t="n">
+        <v>96</v>
+      </c>
+      <c r="C18" s="8" t="n"/>
+      <c r="D18" s="8" t="n"/>
+      <c r="E18" s="6" t="n"/>
+      <c r="F18" s="6" t="n"/>
+      <c r="G18" s="8" t="n"/>
+      <c r="H18" s="8" t="n"/>
+      <c r="I18" s="6" t="n"/>
+      <c r="J18" s="8" t="n"/>
+      <c r="K18" s="8" t="n"/>
+      <c r="L18" s="8" t="n"/>
+    </row>
+    <row r="19" ht="18.75" customHeight="1">
+      <c r="A19" s="6" t="inlineStr">
+        <is>
+          <t>ηt</t>
+        </is>
+      </c>
+      <c r="B19" s="5" t="n">
+        <v>98</v>
+      </c>
+      <c r="C19" s="8" t="n"/>
+      <c r="D19" s="8" t="n"/>
+      <c r="E19" s="6" t="n"/>
+      <c r="F19" s="6" t="n"/>
+      <c r="G19" s="8" t="n"/>
+      <c r="H19" s="8" t="n"/>
+      <c r="I19" s="6" t="n"/>
+      <c r="J19" s="8" t="n"/>
+      <c r="K19" s="8" t="n"/>
+      <c r="L19" s="8" t="n"/>
+    </row>
+    <row r="20" ht="18.75" customHeight="1">
+      <c r="A20" s="6" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="B20" s="5" t="n">
+        <v>14729</v>
+      </c>
+      <c r="C20" s="8" t="n"/>
+      <c r="D20" s="8" t="n"/>
+      <c r="E20" s="6" t="n"/>
+      <c r="F20" s="6" t="n"/>
+      <c r="G20" s="8" t="n"/>
+      <c r="H20" s="8" t="n"/>
+      <c r="I20" s="6" t="n"/>
+      <c r="J20" s="8" t="n"/>
+      <c r="K20" s="8" t="n"/>
+      <c r="L20" s="8" t="n"/>
+    </row>
+    <row r="21" ht="18.75" customHeight="1">
+      <c r="A21" s="6" t="inlineStr">
+        <is>
+          <t>ρ</t>
+        </is>
+      </c>
+      <c r="B21" s="4" t="n">
+        <v>1.225</v>
+      </c>
+      <c r="C21" s="8" t="n"/>
+      <c r="D21" s="8" t="n"/>
+      <c r="E21" s="6" t="n"/>
+      <c r="F21" s="6" t="n"/>
+      <c r="G21" s="8" t="n"/>
+      <c r="H21" s="8" t="n"/>
+      <c r="I21" s="6" t="n"/>
+      <c r="J21" s="8" t="n"/>
+      <c r="K21" s="8" t="n"/>
+      <c r="L21" s="8" t="n"/>
+    </row>
+    <row r="22" ht="18.75" customHeight="1">
+      <c r="A22" s="6" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B22" s="4" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="C22" s="8" t="n"/>
+      <c r="D22" s="8" t="n"/>
+      <c r="E22" s="6" t="n"/>
+      <c r="F22" s="6" t="n"/>
+      <c r="G22" s="8" t="n"/>
+      <c r="H22" s="8" t="n"/>
+      <c r="I22" s="6" t="n"/>
+      <c r="J22" s="8" t="n"/>
+      <c r="K22" s="8" t="n"/>
+      <c r="L22" s="8" t="n"/>
+    </row>
+    <row r="23" ht="18.75" customHeight="1">
+      <c r="A23" s="6" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="B23" s="4" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="C23" s="8" t="n"/>
+      <c r="D23" s="8" t="n"/>
+      <c r="E23" s="6" t="n"/>
+      <c r="F23" s="6" t="n"/>
+      <c r="G23" s="8" t="n"/>
+      <c r="H23" s="8" t="n"/>
+      <c r="I23" s="6" t="n"/>
+      <c r="J23" s="8" t="n"/>
+      <c r="K23" s="8" t="n"/>
+      <c r="L23" s="8" t="n"/>
+    </row>
+    <row r="24" ht="18.75" customHeight="1">
+      <c r="A24" s="6" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
+      <c r="B24" s="4" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C24" s="8" t="n"/>
+      <c r="D24" s="8" t="n"/>
+      <c r="E24" s="6" t="n"/>
+      <c r="F24" s="6" t="n"/>
+      <c r="G24" s="8" t="n"/>
+      <c r="H24" s="8" t="n"/>
+      <c r="I24" s="6" t="n"/>
+      <c r="J24" s="8" t="n"/>
+      <c r="K24" s="8" t="n"/>
+      <c r="L24" s="8" t="n"/>
+    </row>
+    <row r="25" ht="18.75" customHeight="1">
+      <c r="A25" s="6" t="inlineStr">
+        <is>
+          <t>Area</t>
+        </is>
+      </c>
+      <c r="B25" s="4" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="C25" s="8" t="n"/>
+      <c r="D25" s="8" t="n"/>
+      <c r="E25" s="6" t="n"/>
+      <c r="F25" s="6" t="n"/>
+      <c r="G25" s="8" t="n"/>
+      <c r="H25" s="8" t="n"/>
+      <c r="I25" s="6" t="n"/>
+      <c r="J25" s="8" t="n"/>
+      <c r="K25" s="8" t="n"/>
+      <c r="L25" s="8" t="n"/>
+    </row>
+    <row r="26" ht="18.75" customHeight="1">
+      <c r="A26" s="6" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
+      <c r="B26" s="4" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C26" s="8" t="n"/>
+      <c r="D26" s="8" t="n"/>
+      <c r="E26" s="6" t="n"/>
+      <c r="F26" s="6" t="n"/>
+      <c r="G26" s="8" t="n"/>
+      <c r="H26" s="8" t="n"/>
+      <c r="I26" s="6" t="n"/>
+      <c r="J26" s="8" t="n"/>
+      <c r="K26" s="8" t="n"/>
+      <c r="L26" s="8" t="n"/>
+    </row>
+    <row r="27" ht="18.75" customHeight="1">
+      <c r="A27" s="6" t="inlineStr">
+        <is>
+          <t>Area</t>
+        </is>
+      </c>
+      <c r="B27" s="4" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="C27" s="8" t="n"/>
+      <c r="D27" s="8" t="n"/>
+      <c r="E27" s="6" t="n"/>
+      <c r="F27" s="6" t="n"/>
+      <c r="G27" s="8" t="n"/>
+      <c r="H27" s="8" t="n"/>
+      <c r="I27" s="6" t="n"/>
+      <c r="J27" s="8" t="n"/>
+      <c r="K27" s="8" t="n"/>
+      <c r="L27" s="8" t="n"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A4:L25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -488,26 +1299,55 @@
           <t>1st</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>4.171</v>
-      </c>
-      <c r="C5" t="n">
-        <v/>
-      </c>
-      <c r="D5" t="n">
-        <v/>
-      </c>
-      <c r="G5" t="n">
-        <v/>
-      </c>
-      <c r="H5" t="n">
-        <v/>
-      </c>
-      <c r="K5" t="n">
-        <v/>
-      </c>
-      <c r="L5" t="n">
-        <v/>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>OOR</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>OOR</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>OOR</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>OOR</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>OOR</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>OOR</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>OOR</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>OOR</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>OOR</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>OOR</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -516,26 +1356,55 @@
           <t>2nd</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="C6" t="n">
-        <v/>
-      </c>
-      <c r="D6" t="n">
-        <v/>
-      </c>
-      <c r="G6" t="n">
-        <v/>
-      </c>
-      <c r="H6" t="n">
-        <v/>
-      </c>
-      <c r="K6" t="n">
-        <v/>
-      </c>
-      <c r="L6" t="n">
-        <v/>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>OOR</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>OOR</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>OOR</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>OOR</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>OOR</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>OOR</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>OOR</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>OOR</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>OOR</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>OOR</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -544,26 +1413,55 @@
           <t>3rd</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>1.521</v>
-      </c>
-      <c r="C7" t="n">
-        <v/>
-      </c>
-      <c r="D7" t="n">
-        <v/>
-      </c>
-      <c r="G7" t="n">
-        <v/>
-      </c>
-      <c r="H7" t="n">
-        <v/>
-      </c>
-      <c r="K7" t="n">
-        <v/>
-      </c>
-      <c r="L7" t="n">
-        <v/>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>OOR</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>OOR</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>OOR</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>OOR</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>OOR</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>OOR</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>OOR</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>OOR</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>OOR</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>OOR</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -581,12 +1479,21 @@
       <c r="D8" t="n">
         <v>-6706.350945902536</v>
       </c>
+      <c r="E8" t="n">
+        <v>7139.905114274921</v>
+      </c>
+      <c r="F8" t="n">
+        <v>7586.149183917103</v>
+      </c>
       <c r="G8" t="n">
-        <v>1.923833770379531</v>
+        <v>1.98679142584098</v>
       </c>
       <c r="H8" t="n">
         <v>3652.252947800911</v>
       </c>
+      <c r="I8" t="n">
+        <v>669.2304288190779</v>
+      </c>
       <c r="J8" t="n">
         <v>144.6126633325211</v>
       </c>
@@ -612,12 +1519,21 @@
       <c r="D9" t="n">
         <v>-6950.789737827307</v>
       </c>
+      <c r="E9" t="n">
+        <v>7139.905114274921</v>
+      </c>
+      <c r="F9" t="n">
+        <v>7586.149183917103</v>
+      </c>
       <c r="G9" t="n">
-        <v>1.297037211698649</v>
+        <v>1.359994867160097</v>
       </c>
       <c r="H9" t="n">
         <v>2711.163598890543</v>
       </c>
+      <c r="I9" t="n">
+        <v>669.2304288190779</v>
+      </c>
       <c r="J9" t="n">
         <v>107.3497904907753</v>
       </c>
@@ -643,12 +1559,21 @@
       <c r="D10" t="n">
         <v>-7124.472557379489</v>
       </c>
+      <c r="E10" t="n">
+        <v>7139.905114274921</v>
+      </c>
+      <c r="F10" t="n">
+        <v>7586.149183917103</v>
+      </c>
       <c r="G10" t="n">
-        <v>0.8516750302704086</v>
+        <v>0.9146326857318564</v>
       </c>
       <c r="H10" t="n">
         <v>2042.484743614645</v>
       </c>
+      <c r="I10" t="n">
+        <v>669.2304288190779</v>
+      </c>
       <c r="J10" t="n">
         <v>80.87313852891884</v>
       </c>
@@ -786,7 +1711,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="25">
@@ -796,27 +1721,1031 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1.08</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+        <v>0.703</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A4:L25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Gears</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Ratio</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>WR(N)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>WF(N)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>WRstat(N)</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>WFstat(N)</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>a(m/s^2)</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>P(N)</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>R(N)</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>HP(hp)</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Te(Nm)</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>omega_e(RPM)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>OOR</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>OOR</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>OOR</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>OOR</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>OOR</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>OOR</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>OOR</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>OOR</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>OOR</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>OOR</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>OOR</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>OOR</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>OOR</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>OOR</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>OOR</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>OOR</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>OOR</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>OOR</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>OOR</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>OOR</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>3rd</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>OOR</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>OOR</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>OOR</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>OOR</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>OOR</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>OOR</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>OOR</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>OOR</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>OOR</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>OOR</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4th</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1.143</v>
+      </c>
+      <c r="C8" t="n">
+        <v>8019.703352289488</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-6706.350945902536</v>
+      </c>
+      <c r="E8" t="n">
+        <v>7139.905114274921</v>
+      </c>
+      <c r="F8" t="n">
+        <v>7586.149183917103</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1.988525822529108</v>
+      </c>
+      <c r="H8" t="n">
+        <v>3652.252947800911</v>
+      </c>
+      <c r="I8" t="n">
+        <v>666.6263586030285</v>
+      </c>
+      <c r="J8" t="n">
+        <v>144.6126633325211</v>
+      </c>
+      <c r="K8" t="n">
+        <v>186.5068603760058</v>
+      </c>
+      <c r="L8" t="n">
+        <v>5521.252507376894</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>5th</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.867</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7775.264560364717</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-6950.789737827307</v>
+      </c>
+      <c r="E9" t="n">
+        <v>7139.905114274921</v>
+      </c>
+      <c r="F9" t="n">
+        <v>7586.149183917103</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1.361729263848226</v>
+      </c>
+      <c r="H9" t="n">
+        <v>2711.163598890543</v>
+      </c>
+      <c r="I9" t="n">
+        <v>666.6263586030285</v>
+      </c>
+      <c r="J9" t="n">
+        <v>107.3497904907753</v>
+      </c>
+      <c r="K9" t="n">
+        <v>182.522673224482</v>
+      </c>
+      <c r="L9" t="n">
+        <v>4188.036678823943</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>6th</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.6909999999999999</v>
+      </c>
+      <c r="C10" t="n">
+        <v>7601.581740812536</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-7124.472557379489</v>
+      </c>
+      <c r="E10" t="n">
+        <v>7139.905114274921</v>
+      </c>
+      <c r="F10" t="n">
+        <v>7586.149183917103</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.916367082419985</v>
+      </c>
+      <c r="H10" t="n">
+        <v>2042.484743614645</v>
+      </c>
+      <c r="I10" t="n">
+        <v>666.6263586030285</v>
+      </c>
+      <c r="J10" t="n">
+        <v>80.87313852891884</v>
+      </c>
+      <c r="K10" t="n">
+        <v>172.5285479948262</v>
+      </c>
+      <c r="L10" t="n">
+        <v>3337.870063514815</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>v</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>slope %</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>2.31</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>r</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.018</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>hA/h</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>ηd</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>ηt</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>14729</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>ρ</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>1.225</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>3.46</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>1.12</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
         <is>
           <t>CD</t>
         </is>
       </c>
-      <c r="B26" t="n">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
+      <c r="B24" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>Area</t>
         </is>
       </c>
-      <c r="B27" t="n">
-        <v>1.08</v>
+      <c r="B25" t="n">
+        <v>0.596</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A4:L25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Gears</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Ratio</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>WR(N)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>WF(N)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>WRstat(N)</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>WFstat(N)</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>a(m/s^2)</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>P(N)</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>R(N)</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>HP(hp)</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Te(Nm)</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>omega_e(RPM)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>OOR</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>OOR</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>OOR</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>OOR</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>OOR</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>OOR</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>OOR</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>OOR</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>OOR</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>OOR</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>OOR</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>OOR</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>OOR</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>OOR</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>OOR</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>OOR</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>OOR</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>OOR</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>OOR</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>OOR</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>3rd</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>OOR</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>OOR</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>OOR</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>OOR</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>OOR</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>OOR</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>OOR</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>OOR</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>OOR</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>OOR</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4th</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1.143</v>
+      </c>
+      <c r="C8" t="n">
+        <v>8019.703352289488</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-6706.350945902536</v>
+      </c>
+      <c r="E8" t="n">
+        <v>7139.905114274921</v>
+      </c>
+      <c r="F8" t="n">
+        <v>7586.149183917103</v>
+      </c>
+      <c r="G8" t="n">
+        <v>2.012675171696661</v>
+      </c>
+      <c r="H8" t="n">
+        <v>3652.252947800911</v>
+      </c>
+      <c r="I8" t="n">
+        <v>630.3678709487076</v>
+      </c>
+      <c r="J8" t="n">
+        <v>144.6126633325211</v>
+      </c>
+      <c r="K8" t="n">
+        <v>186.5068603760058</v>
+      </c>
+      <c r="L8" t="n">
+        <v>5521.252507376894</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>5th</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.867</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7775.264560364717</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-6950.789737827307</v>
+      </c>
+      <c r="E9" t="n">
+        <v>7139.905114274921</v>
+      </c>
+      <c r="F9" t="n">
+        <v>7586.149183917103</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1.385878613015779</v>
+      </c>
+      <c r="H9" t="n">
+        <v>2711.163598890543</v>
+      </c>
+      <c r="I9" t="n">
+        <v>630.3678709487076</v>
+      </c>
+      <c r="J9" t="n">
+        <v>107.3497904907753</v>
+      </c>
+      <c r="K9" t="n">
+        <v>182.522673224482</v>
+      </c>
+      <c r="L9" t="n">
+        <v>4188.036678823943</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>6th</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.6909999999999999</v>
+      </c>
+      <c r="C10" t="n">
+        <v>7601.581740812536</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-7124.472557379489</v>
+      </c>
+      <c r="E10" t="n">
+        <v>7139.905114274921</v>
+      </c>
+      <c r="F10" t="n">
+        <v>7586.149183917103</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.9405164315875381</v>
+      </c>
+      <c r="H10" t="n">
+        <v>2042.484743614645</v>
+      </c>
+      <c r="I10" t="n">
+        <v>630.3678709487076</v>
+      </c>
+      <c r="J10" t="n">
+        <v>80.87313852891884</v>
+      </c>
+      <c r="K10" t="n">
+        <v>172.5285479948262</v>
+      </c>
+      <c r="L10" t="n">
+        <v>3337.870063514815</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>v</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>slope %</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>2.31</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>r</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.018</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>hA/h</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>ηd</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>ηt</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>14729</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>ρ</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>1.225</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>3.46</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>1.12</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Area</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.576</v>
       </c>
     </row>
   </sheetData>

--- a/All_Results.xlsx
+++ b/All_Results.xlsx
@@ -10,6 +10,7 @@
     <sheet name="Results_2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Results_3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="Results_4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Results_0" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2751,4 +2752,525 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A4:L25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Gears</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Ratio</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>WR(N)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>WF(N)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>WRstat(N)</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>WFstat(N)</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>a(m/s^2)</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>P(N)</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>R(N)</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>HP(hp)</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Te(Nm)</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>omega_e(RPM)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>4.171</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>OOR</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>OOR</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>OOR</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>OOR</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>OOR</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>OOR</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>OOR</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>OOR</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>OOR</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>OOR</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>OOR</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>OOR</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>OOR</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>OOR</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>OOR</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>OOR</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>OOR</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>OOR</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>OOR</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>OOR</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>3rd</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>1.521</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>OOR</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>OOR</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>OOR</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>OOR</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>OOR</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>OOR</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>OOR</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>OOR</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>OOR</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>OOR</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4th</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1.143</v>
+      </c>
+      <c r="C8" t="n">
+        <v>8019.703352289488</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-6706.350945902536</v>
+      </c>
+      <c r="E8" t="n">
+        <v>7139.905114274921</v>
+      </c>
+      <c r="F8" t="n">
+        <v>7586.149183917103</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1.923833770379531</v>
+      </c>
+      <c r="H8" t="n">
+        <v>3652.252947800911</v>
+      </c>
+      <c r="I8" t="n">
+        <v>763.7567598375965</v>
+      </c>
+      <c r="J8" t="n">
+        <v>144.6126633325211</v>
+      </c>
+      <c r="K8" t="n">
+        <v>186.5068603760058</v>
+      </c>
+      <c r="L8" t="n">
+        <v>5521.252507376894</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>5th</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.867</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7775.264560364717</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-6950.789737827307</v>
+      </c>
+      <c r="E9" t="n">
+        <v>7139.905114274921</v>
+      </c>
+      <c r="F9" t="n">
+        <v>7586.149183917103</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1.297037211698649</v>
+      </c>
+      <c r="H9" t="n">
+        <v>2711.163598890543</v>
+      </c>
+      <c r="I9" t="n">
+        <v>763.7567598375965</v>
+      </c>
+      <c r="J9" t="n">
+        <v>107.3497904907753</v>
+      </c>
+      <c r="K9" t="n">
+        <v>182.522673224482</v>
+      </c>
+      <c r="L9" t="n">
+        <v>4188.036678823943</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>6th</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.6909999999999999</v>
+      </c>
+      <c r="C10" t="n">
+        <v>7601.581740812536</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-7124.472557379489</v>
+      </c>
+      <c r="E10" t="n">
+        <v>7139.905114274921</v>
+      </c>
+      <c r="F10" t="n">
+        <v>7586.149183917103</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.8516750302704086</v>
+      </c>
+      <c r="H10" t="n">
+        <v>2042.484743614645</v>
+      </c>
+      <c r="I10" t="n">
+        <v>763.7567598375965</v>
+      </c>
+      <c r="J10" t="n">
+        <v>80.87313852891884</v>
+      </c>
+      <c r="K10" t="n">
+        <v>172.5285479948262</v>
+      </c>
+      <c r="L10" t="n">
+        <v>3337.870063514815</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>v</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>slope %</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>2.31</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>r</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.018</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>hA/h</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>ηd</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>ηt</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>14729</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>ρ</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>1.225</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>3.46</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>1.12</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Area</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/All_Results.xlsx
+++ b/All_Results.xlsx
@@ -772,7 +772,7 @@
         <v>8019.703352289488</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>-6706.350945902536</v>
+        <v>6706.350945902536</v>
       </c>
       <c r="E8" s="6" t="n">
         <v>7139.905114274921</v>
@@ -812,7 +812,7 @@
         <v>7775.264560364717</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>-6950.789737827307</v>
+        <v>6950.789737827307</v>
       </c>
       <c r="E9" s="6" t="n">
         <v>7139.905114274921</v>
@@ -852,7 +852,7 @@
         <v>7601.581740812536</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>-7124.472557379489</v>
+        <v>7124.472557379489</v>
       </c>
       <c r="E10" s="6" t="n">
         <v>7139.905114274921</v>

--- a/All_Results.xlsx
+++ b/All_Results.xlsx
@@ -588,55 +588,35 @@
       <c r="B5" s="4" t="n">
         <v>4.171</v>
       </c>
-      <c r="C5" s="8" t="inlineStr">
-        <is>
-          <t>OOR</t>
-        </is>
-      </c>
-      <c r="D5" s="8" t="inlineStr">
-        <is>
-          <t>OOR</t>
-        </is>
-      </c>
-      <c r="E5" s="6" t="inlineStr">
-        <is>
-          <t>OOR</t>
-        </is>
-      </c>
-      <c r="F5" s="6" t="inlineStr">
-        <is>
-          <t>OOR</t>
-        </is>
-      </c>
-      <c r="G5" s="8" t="inlineStr">
-        <is>
-          <t>OOR</t>
-        </is>
-      </c>
-      <c r="H5" s="8" t="inlineStr">
-        <is>
-          <t>OOR</t>
-        </is>
-      </c>
-      <c r="I5" s="6" t="inlineStr">
-        <is>
-          <t>OOR</t>
-        </is>
-      </c>
-      <c r="J5" s="8" t="inlineStr">
-        <is>
-          <t>OOR</t>
-        </is>
-      </c>
-      <c r="K5" s="8" t="inlineStr">
-        <is>
-          <t>OOR</t>
-        </is>
-      </c>
-      <c r="L5" s="8" t="inlineStr">
-        <is>
-          <t>OOR</t>
-        </is>
+      <c r="C5" s="8" t="n">
+        <v>5415.524044850007</v>
+      </c>
+      <c r="D5" s="8" t="n">
+        <v>3281.95083062353</v>
+      </c>
+      <c r="E5" s="6" t="n">
+        <v>1066.786607113238</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>1066.786607113238</v>
+      </c>
+      <c r="G5" s="8" t="n">
+        <v>56.76909753471365</v>
+      </c>
+      <c r="H5" s="8" t="n">
+        <v>13332.73375124685</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>983.5743079156682</v>
+      </c>
+      <c r="J5" s="8" t="n">
+        <v>533.4728362364156</v>
+      </c>
+      <c r="K5" s="8" t="n">
+        <v>196.196514182822</v>
+      </c>
+      <c r="L5" s="8" t="n">
+        <v>19361.86197272529</v>
       </c>
     </row>
     <row r="6" ht="18.75" customHeight="1">
@@ -648,55 +628,35 @@
       <c r="B6" s="4" t="n">
         <v>2.34</v>
       </c>
-      <c r="C6" s="8" t="inlineStr">
-        <is>
-          <t>OOR</t>
-        </is>
-      </c>
-      <c r="D6" s="8" t="inlineStr">
-        <is>
-          <t>OOR</t>
-        </is>
-      </c>
-      <c r="E6" s="6" t="inlineStr">
-        <is>
-          <t>OOR</t>
-        </is>
-      </c>
-      <c r="F6" s="6" t="inlineStr">
-        <is>
-          <t>OOR</t>
-        </is>
-      </c>
-      <c r="G6" s="8" t="inlineStr">
-        <is>
-          <t>OOR</t>
-        </is>
-      </c>
-      <c r="H6" s="8" t="inlineStr">
-        <is>
-          <t>OOR</t>
-        </is>
-      </c>
-      <c r="I6" s="6" t="inlineStr">
-        <is>
-          <t>OOR</t>
-        </is>
-      </c>
-      <c r="J6" s="8" t="inlineStr">
-        <is>
-          <t>OOR</t>
-        </is>
-      </c>
-      <c r="K6" s="8" t="inlineStr">
-        <is>
-          <t>OOR</t>
-        </is>
-      </c>
-      <c r="L6" s="8" t="inlineStr">
-        <is>
-          <t>OOR</t>
-        </is>
+      <c r="C6" s="8" t="n">
+        <v>1446.220395474019</v>
+      </c>
+      <c r="D6" s="8" t="n">
+        <v>687.3528187524578</v>
+      </c>
+      <c r="E6" s="6" t="n">
+        <v>1066.786607113238</v>
+      </c>
+      <c r="F6" s="6" t="n">
+        <v>1066.786607113238</v>
+      </c>
+      <c r="G6" s="8" t="n">
+        <v>0.9336061902159818</v>
+      </c>
+      <c r="H6" s="8" t="n">
+        <v>1186.664584156331</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>983.5743079156682</v>
+      </c>
+      <c r="J6" s="8" t="n">
+        <v>47.48113426565523</v>
+      </c>
+      <c r="K6" s="8" t="n">
+        <v>31.12607746882464</v>
+      </c>
+      <c r="L6" s="8" t="n">
+        <v>10862.32486602186</v>
       </c>
     </row>
     <row r="7" ht="18.75" customHeight="1">
@@ -708,55 +668,35 @@
       <c r="B7" s="4" t="n">
         <v>1.521</v>
       </c>
-      <c r="C7" s="8" t="inlineStr">
-        <is>
-          <t>OOR</t>
-        </is>
-      </c>
-      <c r="D7" s="8" t="inlineStr">
-        <is>
-          <t>OOR</t>
-        </is>
-      </c>
-      <c r="E7" s="6" t="inlineStr">
-        <is>
-          <t>OOR</t>
-        </is>
-      </c>
-      <c r="F7" s="6" t="inlineStr">
-        <is>
-          <t>OOR</t>
-        </is>
-      </c>
-      <c r="G7" s="8" t="inlineStr">
-        <is>
-          <t>OOR</t>
-        </is>
-      </c>
-      <c r="H7" s="8" t="inlineStr">
-        <is>
-          <t>OOR</t>
-        </is>
-      </c>
-      <c r="I7" s="6" t="inlineStr">
-        <is>
-          <t>OOR</t>
-        </is>
-      </c>
-      <c r="J7" s="8" t="inlineStr">
-        <is>
-          <t>OOR</t>
-        </is>
-      </c>
-      <c r="K7" s="8" t="inlineStr">
-        <is>
-          <t>OOR</t>
-        </is>
-      </c>
-      <c r="L7" s="8" t="inlineStr">
-        <is>
-          <t>OOR</t>
-        </is>
+      <c r="C7" s="8" t="n">
+        <v>1294.570534682059</v>
+      </c>
+      <c r="D7" s="8" t="n">
+        <v>839.0026795444178</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>1066.786607113238</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>1066.786607113238</v>
+      </c>
+      <c r="G7" s="8" t="n">
+        <v>-1.199625539479206</v>
+      </c>
+      <c r="H7" s="8" t="n">
+        <v>722.6160101329336</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>983.5743079156682</v>
+      </c>
+      <c r="J7" s="8" t="n">
+        <v>28.9135011339597</v>
+      </c>
+      <c r="K7" s="8" t="n">
+        <v>29.16020922704595</v>
+      </c>
+      <c r="L7" s="8" t="n">
+        <v>7060.511162914206</v>
       </c>
     </row>
     <row r="8" ht="18.75" customHeight="1">
@@ -769,34 +709,34 @@
         <v>1.143</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>8019.703352289488</v>
+        <v>1215.30424107269</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>6706.350945902536</v>
+        <v>918.2689731537868</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>7139.905114274921</v>
+        <v>1066.786607113238</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>7586.149183917103</v>
+        <v>1066.786607113238</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>1.923833770379531</v>
+        <v>-2.314650451073491</v>
       </c>
       <c r="H8" s="4" t="n">
-        <v>3652.252947800911</v>
+        <v>480.0611516882645</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>763.7567598375965</v>
+        <v>983.5743079156682</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>144.6126633325211</v>
+        <v>19.20833258476407</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>186.5068603760058</v>
+        <v>25.77879439013542</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>5521.252507376894</v>
+        <v>5305.827915326061</v>
       </c>
     </row>
     <row r="9" ht="18.75" customHeight="1">
@@ -809,34 +749,34 @@
         <v>0.867</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>7775.264560364717</v>
+        <v>1172.594880786659</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>6950.789737827307</v>
+        <v>960.9783334398184</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>7139.905114274921</v>
+        <v>1066.786607113238</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>7586.149183917103</v>
+        <v>1066.786607113238</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>1.297037211698649</v>
+        <v>-2.915435457016446</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>2711.163598890543</v>
+        <v>349.3705092130081</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>763.7567598375965</v>
+        <v>983.5743079156682</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>107.3497904907753</v>
+        <v>13.97910435508354</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>182.522673224482</v>
+        <v>24.73314910841883</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>4188.036678823943</v>
+        <v>4024.630623436303</v>
       </c>
     </row>
     <row r="10" ht="18.75" customHeight="1">
@@ -849,34 +789,34 @@
         <v>0.6909999999999999</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>7601.581740812536</v>
+        <v>1151.309911825298</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>7124.472557379489</v>
+        <v>982.2633024011792</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>7139.905114274921</v>
+        <v>1066.786607113238</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>7586.149183917103</v>
+        <v>1066.786607113238</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>0.8516750302704086</v>
+        <v>-3.214847345143676</v>
       </c>
       <c r="H10" s="4" t="n">
-        <v>2042.484743614645</v>
+        <v>284.2385041912438</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>763.7567598375965</v>
+        <v>983.5743079156682</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>80.87313852891884</v>
+        <v>11.37302550456456</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>172.5285479948262</v>
+        <v>25.24742739549875</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>3337.870063514815</v>
+        <v>3207.635248897907</v>
       </c>
     </row>
     <row r="11" ht="18.75" customHeight="1">
@@ -940,7 +880,7 @@
         </is>
       </c>
       <c r="B14" s="4" t="n">
-        <v>2.31</v>
+        <v>1.53</v>
       </c>
       <c r="C14" s="8" t="n"/>
       <c r="D14" s="8" t="n"/>
@@ -960,7 +900,7 @@
         </is>
       </c>
       <c r="B15" s="4" t="n">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
       <c r="C15" s="8" t="n"/>
       <c r="D15" s="8" t="n"/>
@@ -980,7 +920,7 @@
         </is>
       </c>
       <c r="B16" s="4" t="n">
-        <v>0.018</v>
+        <v>0.012</v>
       </c>
       <c r="C16" s="8" t="n"/>
       <c r="D16" s="8" t="n"/>
@@ -1000,7 +940,7 @@
         </is>
       </c>
       <c r="B17" s="4" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="C17" s="8" t="n"/>
       <c r="D17" s="8" t="n"/>
@@ -1020,7 +960,7 @@
         </is>
       </c>
       <c r="B18" s="5" t="n">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C18" s="8" t="n"/>
       <c r="D18" s="8" t="n"/>
@@ -1060,7 +1000,7 @@
         </is>
       </c>
       <c r="B20" s="5" t="n">
-        <v>14729</v>
+        <v>2134</v>
       </c>
       <c r="C20" s="8" t="n"/>
       <c r="D20" s="8" t="n"/>
@@ -1100,7 +1040,7 @@
         </is>
       </c>
       <c r="B22" s="4" t="n">
-        <v>3.46</v>
+        <v>3.5</v>
       </c>
       <c r="C22" s="8" t="n"/>
       <c r="D22" s="8" t="n"/>
@@ -1120,7 +1060,7 @@
         </is>
       </c>
       <c r="B23" s="4" t="n">
-        <v>1.12</v>
+        <v>0.765</v>
       </c>
       <c r="C23" s="8" t="n"/>
       <c r="D23" s="8" t="n"/>
@@ -1140,7 +1080,7 @@
         </is>
       </c>
       <c r="B24" s="4" t="n">
-        <v>0.4</v>
+        <v>1.81</v>
       </c>
       <c r="C24" s="8" t="n"/>
       <c r="D24" s="8" t="n"/>
@@ -1160,7 +1100,7 @@
         </is>
       </c>
       <c r="B25" s="4" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="C25" s="8" t="n"/>
       <c r="D25" s="8" t="n"/>

--- a/All_Results.xlsx
+++ b/All_Results.xlsx
@@ -588,35 +588,55 @@
       <c r="B5" s="4" t="n">
         <v>4.171</v>
       </c>
-      <c r="C5" s="8" t="n">
-        <v>5415.524044850007</v>
-      </c>
-      <c r="D5" s="8" t="n">
-        <v>3281.95083062353</v>
-      </c>
-      <c r="E5" s="6" t="n">
-        <v>1066.786607113238</v>
-      </c>
-      <c r="F5" s="6" t="n">
-        <v>1066.786607113238</v>
-      </c>
-      <c r="G5" s="8" t="n">
-        <v>56.76909753471365</v>
-      </c>
-      <c r="H5" s="8" t="n">
-        <v>13332.73375124685</v>
-      </c>
-      <c r="I5" s="6" t="n">
-        <v>983.5743079156682</v>
-      </c>
-      <c r="J5" s="8" t="n">
-        <v>533.4728362364156</v>
-      </c>
-      <c r="K5" s="8" t="n">
-        <v>196.196514182822</v>
-      </c>
-      <c r="L5" s="8" t="n">
-        <v>19361.86197272529</v>
+      <c r="C5" s="8" t="inlineStr">
+        <is>
+          <t>OOR</t>
+        </is>
+      </c>
+      <c r="D5" s="8" t="inlineStr">
+        <is>
+          <t>OOR</t>
+        </is>
+      </c>
+      <c r="E5" s="6" t="inlineStr">
+        <is>
+          <t>OOR</t>
+        </is>
+      </c>
+      <c r="F5" s="6" t="inlineStr">
+        <is>
+          <t>OOR</t>
+        </is>
+      </c>
+      <c r="G5" s="8" t="inlineStr">
+        <is>
+          <t>OOR</t>
+        </is>
+      </c>
+      <c r="H5" s="8" t="inlineStr">
+        <is>
+          <t>OOR</t>
+        </is>
+      </c>
+      <c r="I5" s="6" t="inlineStr">
+        <is>
+          <t>OOR</t>
+        </is>
+      </c>
+      <c r="J5" s="8" t="inlineStr">
+        <is>
+          <t>OOR</t>
+        </is>
+      </c>
+      <c r="K5" s="8" t="inlineStr">
+        <is>
+          <t>OOR</t>
+        </is>
+      </c>
+      <c r="L5" s="8" t="inlineStr">
+        <is>
+          <t>OOR</t>
+        </is>
       </c>
     </row>
     <row r="6" ht="18.75" customHeight="1">
@@ -628,35 +648,55 @@
       <c r="B6" s="4" t="n">
         <v>2.34</v>
       </c>
-      <c r="C6" s="8" t="n">
-        <v>1446.220395474019</v>
-      </c>
-      <c r="D6" s="8" t="n">
-        <v>687.3528187524578</v>
-      </c>
-      <c r="E6" s="6" t="n">
-        <v>1066.786607113238</v>
-      </c>
-      <c r="F6" s="6" t="n">
-        <v>1066.786607113238</v>
-      </c>
-      <c r="G6" s="8" t="n">
-        <v>0.9336061902159818</v>
-      </c>
-      <c r="H6" s="8" t="n">
-        <v>1186.664584156331</v>
-      </c>
-      <c r="I6" s="6" t="n">
-        <v>983.5743079156682</v>
-      </c>
-      <c r="J6" s="8" t="n">
-        <v>47.48113426565523</v>
-      </c>
-      <c r="K6" s="8" t="n">
-        <v>31.12607746882464</v>
-      </c>
-      <c r="L6" s="8" t="n">
-        <v>10862.32486602186</v>
+      <c r="C6" s="8" t="inlineStr">
+        <is>
+          <t>OOR</t>
+        </is>
+      </c>
+      <c r="D6" s="8" t="inlineStr">
+        <is>
+          <t>OOR</t>
+        </is>
+      </c>
+      <c r="E6" s="6" t="inlineStr">
+        <is>
+          <t>OOR</t>
+        </is>
+      </c>
+      <c r="F6" s="6" t="inlineStr">
+        <is>
+          <t>OOR</t>
+        </is>
+      </c>
+      <c r="G6" s="8" t="inlineStr">
+        <is>
+          <t>OOR</t>
+        </is>
+      </c>
+      <c r="H6" s="8" t="inlineStr">
+        <is>
+          <t>OOR</t>
+        </is>
+      </c>
+      <c r="I6" s="6" t="inlineStr">
+        <is>
+          <t>OOR</t>
+        </is>
+      </c>
+      <c r="J6" s="8" t="inlineStr">
+        <is>
+          <t>OOR</t>
+        </is>
+      </c>
+      <c r="K6" s="8" t="inlineStr">
+        <is>
+          <t>OOR</t>
+        </is>
+      </c>
+      <c r="L6" s="8" t="inlineStr">
+        <is>
+          <t>OOR</t>
+        </is>
       </c>
     </row>
     <row r="7" ht="18.75" customHeight="1">
@@ -668,35 +708,55 @@
       <c r="B7" s="4" t="n">
         <v>1.521</v>
       </c>
-      <c r="C7" s="8" t="n">
-        <v>1294.570534682059</v>
-      </c>
-      <c r="D7" s="8" t="n">
-        <v>839.0026795444178</v>
-      </c>
-      <c r="E7" s="6" t="n">
-        <v>1066.786607113238</v>
-      </c>
-      <c r="F7" s="6" t="n">
-        <v>1066.786607113238</v>
-      </c>
-      <c r="G7" s="8" t="n">
-        <v>-1.199625539479206</v>
-      </c>
-      <c r="H7" s="8" t="n">
-        <v>722.6160101329336</v>
-      </c>
-      <c r="I7" s="6" t="n">
-        <v>983.5743079156682</v>
-      </c>
-      <c r="J7" s="8" t="n">
-        <v>28.9135011339597</v>
-      </c>
-      <c r="K7" s="8" t="n">
-        <v>29.16020922704595</v>
-      </c>
-      <c r="L7" s="8" t="n">
-        <v>7060.511162914206</v>
+      <c r="C7" s="8" t="inlineStr">
+        <is>
+          <t>OOR</t>
+        </is>
+      </c>
+      <c r="D7" s="8" t="inlineStr">
+        <is>
+          <t>OOR</t>
+        </is>
+      </c>
+      <c r="E7" s="6" t="inlineStr">
+        <is>
+          <t>OOR</t>
+        </is>
+      </c>
+      <c r="F7" s="6" t="inlineStr">
+        <is>
+          <t>OOR</t>
+        </is>
+      </c>
+      <c r="G7" s="8" t="inlineStr">
+        <is>
+          <t>OOR</t>
+        </is>
+      </c>
+      <c r="H7" s="8" t="inlineStr">
+        <is>
+          <t>OOR</t>
+        </is>
+      </c>
+      <c r="I7" s="6" t="inlineStr">
+        <is>
+          <t>OOR</t>
+        </is>
+      </c>
+      <c r="J7" s="8" t="inlineStr">
+        <is>
+          <t>OOR</t>
+        </is>
+      </c>
+      <c r="K7" s="8" t="inlineStr">
+        <is>
+          <t>OOR</t>
+        </is>
+      </c>
+      <c r="L7" s="8" t="inlineStr">
+        <is>
+          <t>OOR</t>
+        </is>
       </c>
     </row>
     <row r="8" ht="18.75" customHeight="1">
@@ -709,34 +769,34 @@
         <v>1.143</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>1215.30424107269</v>
+        <v>8019.703352289488</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>918.2689731537868</v>
+        <v>6706.350945902536</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>1066.786607113238</v>
+        <v>7139.905114274921</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>1066.786607113238</v>
+        <v>7586.149183917103</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>-2.314650451073491</v>
+        <v>1.923833770379531</v>
       </c>
       <c r="H8" s="4" t="n">
-        <v>480.0611516882645</v>
+        <v>3652.252947800911</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>983.5743079156682</v>
+        <v>763.7567598375965</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>19.20833258476407</v>
+        <v>144.6126633325211</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>25.77879439013542</v>
+        <v>186.5068603760058</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>5305.827915326061</v>
+        <v>5521.252507376894</v>
       </c>
     </row>
     <row r="9" ht="18.75" customHeight="1">
@@ -749,34 +809,34 @@
         <v>0.867</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>1172.594880786659</v>
+        <v>7775.264560364717</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>960.9783334398184</v>
+        <v>6950.789737827307</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>1066.786607113238</v>
+        <v>7139.905114274921</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>1066.786607113238</v>
+        <v>7586.149183917103</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>-2.915435457016446</v>
+        <v>1.297037211698649</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>349.3705092130081</v>
+        <v>2711.163598890543</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>983.5743079156682</v>
+        <v>763.7567598375965</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>13.97910435508354</v>
+        <v>107.3497904907753</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>24.73314910841883</v>
+        <v>182.522673224482</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>4024.630623436303</v>
+        <v>4188.036678823943</v>
       </c>
     </row>
     <row r="10" ht="18.75" customHeight="1">
@@ -789,34 +849,34 @@
         <v>0.6909999999999999</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>1151.309911825298</v>
+        <v>7601.581740812536</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>982.2633024011792</v>
+        <v>7124.472557379489</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>1066.786607113238</v>
+        <v>7139.905114274921</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>1066.786607113238</v>
+        <v>7586.149183917103</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>-3.214847345143676</v>
+        <v>0.8516750302704086</v>
       </c>
       <c r="H10" s="4" t="n">
-        <v>284.2385041912438</v>
+        <v>2042.484743614645</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>983.5743079156682</v>
+        <v>763.7567598375965</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>11.37302550456456</v>
+        <v>80.87313852891884</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>25.24742739549875</v>
+        <v>172.5285479948262</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>3207.635248897907</v>
+        <v>3337.870063514815</v>
       </c>
     </row>
     <row r="11" ht="18.75" customHeight="1">
@@ -880,7 +940,7 @@
         </is>
       </c>
       <c r="B14" s="4" t="n">
-        <v>1.53</v>
+        <v>2.31</v>
       </c>
       <c r="C14" s="8" t="n"/>
       <c r="D14" s="8" t="n"/>
@@ -900,7 +960,7 @@
         </is>
       </c>
       <c r="B15" s="4" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="C15" s="8" t="n"/>
       <c r="D15" s="8" t="n"/>
@@ -920,7 +980,7 @@
         </is>
       </c>
       <c r="B16" s="4" t="n">
-        <v>0.012</v>
+        <v>0.018</v>
       </c>
       <c r="C16" s="8" t="n"/>
       <c r="D16" s="8" t="n"/>
@@ -940,7 +1000,7 @@
         </is>
       </c>
       <c r="B17" s="4" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="C17" s="8" t="n"/>
       <c r="D17" s="8" t="n"/>
@@ -960,7 +1020,7 @@
         </is>
       </c>
       <c r="B18" s="5" t="n">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C18" s="8" t="n"/>
       <c r="D18" s="8" t="n"/>
@@ -1000,7 +1060,7 @@
         </is>
       </c>
       <c r="B20" s="5" t="n">
-        <v>2134</v>
+        <v>14729</v>
       </c>
       <c r="C20" s="8" t="n"/>
       <c r="D20" s="8" t="n"/>
@@ -1040,7 +1100,7 @@
         </is>
       </c>
       <c r="B22" s="4" t="n">
-        <v>3.5</v>
+        <v>3.46</v>
       </c>
       <c r="C22" s="8" t="n"/>
       <c r="D22" s="8" t="n"/>
@@ -1060,7 +1120,7 @@
         </is>
       </c>
       <c r="B23" s="4" t="n">
-        <v>0.765</v>
+        <v>1.12</v>
       </c>
       <c r="C23" s="8" t="n"/>
       <c r="D23" s="8" t="n"/>
@@ -1080,7 +1140,7 @@
         </is>
       </c>
       <c r="B24" s="4" t="n">
-        <v>1.81</v>
+        <v>0.4</v>
       </c>
       <c r="C24" s="8" t="n"/>
       <c r="D24" s="8" t="n"/>
@@ -1100,7 +1160,7 @@
         </is>
       </c>
       <c r="B25" s="4" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="C25" s="8" t="n"/>
       <c r="D25" s="8" t="n"/>

--- a/All_Results.xlsx
+++ b/All_Results.xlsx
@@ -588,55 +588,35 @@
       <c r="B5" s="4" t="n">
         <v>4.171</v>
       </c>
-      <c r="C5" s="8" t="inlineStr">
-        <is>
-          <t>OOR</t>
-        </is>
-      </c>
-      <c r="D5" s="8" t="inlineStr">
-        <is>
-          <t>OOR</t>
-        </is>
-      </c>
-      <c r="E5" s="6" t="inlineStr">
-        <is>
-          <t>OOR</t>
-        </is>
-      </c>
-      <c r="F5" s="6" t="inlineStr">
-        <is>
-          <t>OOR</t>
-        </is>
-      </c>
-      <c r="G5" s="8" t="inlineStr">
-        <is>
-          <t>OOR</t>
-        </is>
-      </c>
-      <c r="H5" s="8" t="inlineStr">
-        <is>
-          <t>OOR</t>
-        </is>
-      </c>
-      <c r="I5" s="6" t="inlineStr">
-        <is>
-          <t>OOR</t>
-        </is>
-      </c>
-      <c r="J5" s="8" t="inlineStr">
-        <is>
-          <t>OOR</t>
-        </is>
-      </c>
-      <c r="K5" s="8" t="inlineStr">
-        <is>
-          <t>OOR</t>
-        </is>
-      </c>
-      <c r="L5" s="8" t="inlineStr">
-        <is>
-          <t>OOR</t>
-        </is>
+      <c r="C5" s="8" t="n">
+        <v>2287.519050974679</v>
+      </c>
+      <c r="D5" s="8" t="n">
+        <v>153.9458367482023</v>
+      </c>
+      <c r="E5" s="6" t="n">
+        <v>1066.786607113238</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>1066.786607113238</v>
+      </c>
+      <c r="G5" s="8" t="n">
+        <v>12.76800535610732</v>
+      </c>
+      <c r="H5" s="8" t="n">
+        <v>3761.038469988351</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>983.5743079156682</v>
+      </c>
+      <c r="J5" s="8" t="n">
+        <v>150.4876567111617</v>
+      </c>
+      <c r="K5" s="8" t="n">
+        <v>55.34518661262561</v>
+      </c>
+      <c r="L5" s="8" t="n">
+        <v>19361.86197272529</v>
       </c>
     </row>
     <row r="6" ht="18.75" customHeight="1">
@@ -648,55 +628,35 @@
       <c r="B6" s="4" t="n">
         <v>2.34</v>
       </c>
-      <c r="C6" s="8" t="inlineStr">
-        <is>
-          <t>OOR</t>
-        </is>
-      </c>
-      <c r="D6" s="8" t="inlineStr">
-        <is>
-          <t>OOR</t>
-        </is>
-      </c>
-      <c r="E6" s="6" t="inlineStr">
-        <is>
-          <t>OOR</t>
-        </is>
-      </c>
-      <c r="F6" s="6" t="inlineStr">
-        <is>
-          <t>OOR</t>
-        </is>
-      </c>
-      <c r="G6" s="8" t="inlineStr">
-        <is>
-          <t>OOR</t>
-        </is>
-      </c>
-      <c r="H6" s="8" t="inlineStr">
-        <is>
-          <t>OOR</t>
-        </is>
-      </c>
-      <c r="I6" s="6" t="inlineStr">
-        <is>
-          <t>OOR</t>
-        </is>
-      </c>
-      <c r="J6" s="8" t="inlineStr">
-        <is>
-          <t>OOR</t>
-        </is>
-      </c>
-      <c r="K6" s="8" t="inlineStr">
-        <is>
-          <t>OOR</t>
-        </is>
-      </c>
-      <c r="L6" s="8" t="inlineStr">
-        <is>
-          <t>OOR</t>
-        </is>
+      <c r="C6" s="8" t="n">
+        <v>1445.551635560386</v>
+      </c>
+      <c r="D6" s="8" t="n">
+        <v>688.0215786660912</v>
+      </c>
+      <c r="E6" s="6" t="n">
+        <v>1066.786607113238</v>
+      </c>
+      <c r="F6" s="6" t="n">
+        <v>1066.786607113238</v>
+      </c>
+      <c r="G6" s="8" t="n">
+        <v>0.9241988629697776</v>
+      </c>
+      <c r="H6" s="8" t="n">
+        <v>1184.618178820613</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>983.5743079156682</v>
+      </c>
+      <c r="J6" s="8" t="n">
+        <v>47.39925295917274</v>
+      </c>
+      <c r="K6" s="8" t="n">
+        <v>31.07240048894116</v>
+      </c>
+      <c r="L6" s="8" t="n">
+        <v>10862.32486602186</v>
       </c>
     </row>
     <row r="7" ht="18.75" customHeight="1">
@@ -708,55 +668,35 @@
       <c r="B7" s="4" t="n">
         <v>1.521</v>
       </c>
-      <c r="C7" s="8" t="inlineStr">
-        <is>
-          <t>OOR</t>
-        </is>
-      </c>
-      <c r="D7" s="8" t="inlineStr">
-        <is>
-          <t>OOR</t>
-        </is>
-      </c>
-      <c r="E7" s="6" t="inlineStr">
-        <is>
-          <t>OOR</t>
-        </is>
-      </c>
-      <c r="F7" s="6" t="inlineStr">
-        <is>
-          <t>OOR</t>
-        </is>
-      </c>
-      <c r="G7" s="8" t="inlineStr">
-        <is>
-          <t>OOR</t>
-        </is>
-      </c>
-      <c r="H7" s="8" t="inlineStr">
-        <is>
-          <t>OOR</t>
-        </is>
-      </c>
-      <c r="I7" s="6" t="inlineStr">
-        <is>
-          <t>OOR</t>
-        </is>
-      </c>
-      <c r="J7" s="8" t="inlineStr">
-        <is>
-          <t>OOR</t>
-        </is>
-      </c>
-      <c r="K7" s="8" t="inlineStr">
-        <is>
-          <t>OOR</t>
-        </is>
-      </c>
-      <c r="L7" s="8" t="inlineStr">
-        <is>
-          <t>OOR</t>
-        </is>
+      <c r="C7" s="8" t="n">
+        <v>1298.193878465627</v>
+      </c>
+      <c r="D7" s="8" t="n">
+        <v>835.37933576085</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>1066.786607113238</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>1066.786607113238</v>
+      </c>
+      <c r="G7" s="8" t="n">
+        <v>-1.14865660428642</v>
+      </c>
+      <c r="H7" s="8" t="n">
+        <v>733.7034421106509</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>983.5743079156682</v>
+      </c>
+      <c r="J7" s="8" t="n">
+        <v>29.35713436733001</v>
+      </c>
+      <c r="K7" s="8" t="n">
+        <v>29.60762781690172</v>
+      </c>
+      <c r="L7" s="8" t="n">
+        <v>7060.511162914206</v>
       </c>
     </row>
     <row r="8" ht="18.75" customHeight="1">
@@ -769,34 +709,34 @@
         <v>1.143</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>8019.703352289488</v>
+        <v>1200.776382503397</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>6706.350945902536</v>
+        <v>932.7968317230801</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>7139.905114274921</v>
+        <v>1066.786607113238</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>7586.149183917103</v>
+        <v>1066.786607113238</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>1.923833770379531</v>
+        <v>-2.519011264216974</v>
       </c>
       <c r="H8" s="4" t="n">
-        <v>3652.252947800911</v>
+        <v>435.6059044662268</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>763.7567598375965</v>
+        <v>983.5743079156682</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>144.6126633325211</v>
+        <v>17.42957758495665</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>186.5068603760058</v>
+        <v>23.39159293950914</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>5521.252507376894</v>
+        <v>5305.827915326061</v>
       </c>
     </row>
     <row r="9" ht="18.75" customHeight="1">
@@ -809,34 +749,34 @@
         <v>0.867</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>7775.264560364717</v>
+        <v>1128.531092097533</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>6950.789737827307</v>
+        <v>1005.042122128944</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>7139.905114274921</v>
+        <v>1066.786607113238</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>7586.149183917103</v>
+        <v>1066.786607113238</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>1.297037211698649</v>
+        <v>-3.535272967392913</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>2711.163598890543</v>
+        <v>214.5353158242842</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>763.7567598375965</v>
+        <v>983.5743079156682</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>107.3497904907753</v>
+        <v>8.584043268317201</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>182.522673224482</v>
+        <v>15.18769849022558</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>4188.036678823943</v>
+        <v>4024.630623436303</v>
       </c>
     </row>
     <row r="10" ht="18.75" customHeight="1">
@@ -849,34 +789,34 @@
         <v>0.6909999999999999</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>7601.581740812536</v>
+        <v>1087.779219151618</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>7124.472557379489</v>
+        <v>1045.793995074858</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>7139.905114274921</v>
+        <v>1066.786607113238</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>7586.149183917103</v>
+        <v>1066.786607113238</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>0.8516750302704086</v>
+        <v>-4.10852234565638</v>
       </c>
       <c r="H10" s="4" t="n">
-        <v>2042.484743614645</v>
+        <v>89.83458460978494</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>763.7567598375965</v>
+        <v>983.5743079156682</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>80.87313852891884</v>
+        <v>3.594484937451063</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>172.5285479948262</v>
+        <v>7.979538729257797</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>3337.870063514815</v>
+        <v>3207.635248897907</v>
       </c>
     </row>
     <row r="11" ht="18.75" customHeight="1">
@@ -940,7 +880,7 @@
         </is>
       </c>
       <c r="B14" s="4" t="n">
-        <v>2.31</v>
+        <v>1.53</v>
       </c>
       <c r="C14" s="8" t="n"/>
       <c r="D14" s="8" t="n"/>
@@ -960,7 +900,7 @@
         </is>
       </c>
       <c r="B15" s="4" t="n">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
       <c r="C15" s="8" t="n"/>
       <c r="D15" s="8" t="n"/>
@@ -980,7 +920,7 @@
         </is>
       </c>
       <c r="B16" s="4" t="n">
-        <v>0.018</v>
+        <v>0.012</v>
       </c>
       <c r="C16" s="8" t="n"/>
       <c r="D16" s="8" t="n"/>
@@ -1000,7 +940,7 @@
         </is>
       </c>
       <c r="B17" s="4" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="C17" s="8" t="n"/>
       <c r="D17" s="8" t="n"/>
@@ -1020,7 +960,7 @@
         </is>
       </c>
       <c r="B18" s="5" t="n">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C18" s="8" t="n"/>
       <c r="D18" s="8" t="n"/>
@@ -1060,7 +1000,7 @@
         </is>
       </c>
       <c r="B20" s="5" t="n">
-        <v>14729</v>
+        <v>2134</v>
       </c>
       <c r="C20" s="8" t="n"/>
       <c r="D20" s="8" t="n"/>
@@ -1100,7 +1040,7 @@
         </is>
       </c>
       <c r="B22" s="4" t="n">
-        <v>3.46</v>
+        <v>3.5</v>
       </c>
       <c r="C22" s="8" t="n"/>
       <c r="D22" s="8" t="n"/>
@@ -1120,7 +1060,7 @@
         </is>
       </c>
       <c r="B23" s="4" t="n">
-        <v>1.12</v>
+        <v>0.765</v>
       </c>
       <c r="C23" s="8" t="n"/>
       <c r="D23" s="8" t="n"/>
@@ -1140,7 +1080,7 @@
         </is>
       </c>
       <c r="B24" s="4" t="n">
-        <v>0.4</v>
+        <v>1.81</v>
       </c>
       <c r="C24" s="8" t="n"/>
       <c r="D24" s="8" t="n"/>
@@ -1160,7 +1100,7 @@
         </is>
       </c>
       <c r="B25" s="4" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="C25" s="8" t="n"/>
       <c r="D25" s="8" t="n"/>
